--- a/Data/final_tables/column_keys/BARD1_SGE_final_table_columnkeys.xlsx
+++ b/Data/final_tables/column_keys/BARD1_SGE_final_table_columnkeys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Desktop/BARD1_draft_figs/supp_figs/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650EBB6F-AFA9-834F-8844-B30AF3438DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA6747D-5340-6643-A4FB-37BE349D6672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1020" yWindow="-19640" windowWidth="28800" windowHeight="16140" xr2:uid="{BF4B49DB-9683-1849-9012-8FB29919FB02}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="197">
   <si>
     <t>chrom</t>
   </si>
@@ -926,6 +926,18 @@
   </si>
   <si>
     <t>Orthogonal columns are named: Lead author, year published, assay completed. These denote the functional consequence of the variant assayed. Either: "Normal", "Abnormal" , or "Intermediate"</t>
+  </si>
+  <si>
+    <t>REVEL_train</t>
+  </si>
+  <si>
+    <t>Either TRUE or FALSE for if the variant was used in the training set for REVEL</t>
+  </si>
+  <si>
+    <t>MutPred2_train</t>
+  </si>
+  <si>
+    <t>Either TRUE or FALSE for if the variant was used in the training set for MutPred2</t>
   </si>
 </sst>
 </file>
@@ -978,11 +990,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1322,10 +1333,13 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1414,7 +1428,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8D1B24-30ED-464D-921D-982CF6ECBB18}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14:B15"/>
@@ -1425,7 +1439,7 @@
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1433,7 +1447,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -1441,78 +1455,69 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1521,10 +1526,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F306EB-5164-DB47-BAC8-5F93E3CF6AE1}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B14"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1830,18 +1835,34 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>172</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
